--- a/excel/M2-S4/M2-S4-MAGI.xlsx
+++ b/excel/M2-S4/M2-S4-MAGI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AndyVESPUCE\bulletin-espi\backend\excel\M2-S4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3747C897-F819-4070-B322-6905CF1C2F77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE1CFF7C-6AC2-4292-8BDF-6D52AAAB56EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33795" yWindow="1995" windowWidth="17280" windowHeight="8880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
   <si>
     <t>UE 1 – Economie &amp; Gestion</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>Gestion de Contentieux et Recouvrement</t>
+  </si>
+  <si>
+    <t>Appreciations</t>
   </si>
 </sst>
 </file>
@@ -622,15 +625,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y32"/>
+  <dimension ref="A1:Z32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA3" sqref="AA3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="26" max="26" width="13.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
@@ -684,8 +690,9 @@
       <c r="W1" s="3"/>
       <c r="X1" s="3"/>
       <c r="Y1" s="3"/>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z1" s="3"/>
+    </row>
+    <row r="2" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -761,8 +768,11 @@
       <c r="Y2" s="8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z2" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -788,8 +798,9 @@
       <c r="W3" s="12"/>
       <c r="X3" s="10"/>
       <c r="Y3" s="12"/>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z3" s="12"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -815,8 +826,9 @@
       <c r="W4" s="15"/>
       <c r="X4" s="14"/>
       <c r="Y4" s="15"/>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z4" s="15"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
@@ -842,8 +854,9 @@
       <c r="W5" s="12"/>
       <c r="X5" s="17"/>
       <c r="Y5" s="12"/>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z5" s="12"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -869,8 +882,9 @@
       <c r="W6" s="15"/>
       <c r="X6" s="14"/>
       <c r="Y6" s="15"/>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z6" s="15"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="16"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -896,8 +910,9 @@
       <c r="W7" s="12"/>
       <c r="X7" s="17"/>
       <c r="Y7" s="12"/>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z7" s="12"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
@@ -923,8 +938,9 @@
       <c r="W8" s="15"/>
       <c r="X8" s="14"/>
       <c r="Y8" s="15"/>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z8" s="15"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="16"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
@@ -950,8 +966,9 @@
       <c r="W9" s="12"/>
       <c r="X9" s="17"/>
       <c r="Y9" s="12"/>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z9" s="12"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
@@ -977,8 +994,9 @@
       <c r="W10" s="15"/>
       <c r="X10" s="14"/>
       <c r="Y10" s="15"/>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z10" s="15"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="16"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -1004,8 +1022,9 @@
       <c r="W11" s="12"/>
       <c r="X11" s="17"/>
       <c r="Y11" s="12"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z11" s="12"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" s="13"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
@@ -1031,8 +1050,9 @@
       <c r="W12" s="15"/>
       <c r="X12" s="14"/>
       <c r="Y12" s="15"/>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z12" s="15"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" s="16"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
@@ -1058,8 +1078,9 @@
       <c r="W13" s="12"/>
       <c r="X13" s="17"/>
       <c r="Y13" s="12"/>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z13" s="12"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" s="13"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
@@ -1085,8 +1106,9 @@
       <c r="W14" s="15"/>
       <c r="X14" s="14"/>
       <c r="Y14" s="15"/>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z14" s="15"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" s="16"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
@@ -1112,8 +1134,9 @@
       <c r="W15" s="12"/>
       <c r="X15" s="17"/>
       <c r="Y15" s="12"/>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z15" s="12"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" s="13"/>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
@@ -1139,8 +1162,9 @@
       <c r="W16" s="15"/>
       <c r="X16" s="14"/>
       <c r="Y16" s="15"/>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z16" s="15"/>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" s="16"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -1166,8 +1190,9 @@
       <c r="W17" s="12"/>
       <c r="X17" s="17"/>
       <c r="Y17" s="12"/>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z17" s="12"/>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" s="13"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
@@ -1193,8 +1218,9 @@
       <c r="W18" s="15"/>
       <c r="X18" s="14"/>
       <c r="Y18" s="15"/>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z18" s="15"/>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" s="16"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -1220,8 +1246,9 @@
       <c r="W19" s="12"/>
       <c r="X19" s="17"/>
       <c r="Y19" s="12"/>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z19" s="12"/>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20" s="13"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
@@ -1247,8 +1274,9 @@
       <c r="W20" s="15"/>
       <c r="X20" s="14"/>
       <c r="Y20" s="15"/>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z20" s="15"/>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21" s="16"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -1274,8 +1302,9 @@
       <c r="W21" s="12"/>
       <c r="X21" s="17"/>
       <c r="Y21" s="12"/>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z21" s="12"/>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A22" s="13"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -1301,8 +1330,9 @@
       <c r="W22" s="15"/>
       <c r="X22" s="14"/>
       <c r="Y22" s="15"/>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z22" s="15"/>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23" s="16"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -1328,8 +1358,9 @@
       <c r="W23" s="12"/>
       <c r="X23" s="17"/>
       <c r="Y23" s="12"/>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z23" s="12"/>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A24" s="13"/>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
@@ -1355,8 +1386,9 @@
       <c r="W24" s="15"/>
       <c r="X24" s="14"/>
       <c r="Y24" s="15"/>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z24" s="15"/>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A25" s="16"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -1382,8 +1414,9 @@
       <c r="W25" s="12"/>
       <c r="X25" s="17"/>
       <c r="Y25" s="12"/>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z25" s="12"/>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A26" s="13"/>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
@@ -1409,8 +1442,9 @@
       <c r="W26" s="15"/>
       <c r="X26" s="14"/>
       <c r="Y26" s="15"/>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z26" s="15"/>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A27" s="16"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -1436,8 +1470,9 @@
       <c r="W27" s="12"/>
       <c r="X27" s="17"/>
       <c r="Y27" s="12"/>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z27" s="12"/>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A28" s="13"/>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
@@ -1463,8 +1498,9 @@
       <c r="W28" s="15"/>
       <c r="X28" s="14"/>
       <c r="Y28" s="15"/>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z28" s="15"/>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29" s="16"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -1490,8 +1526,9 @@
       <c r="W29" s="12"/>
       <c r="X29" s="17"/>
       <c r="Y29" s="12"/>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z29" s="12"/>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A30" s="13"/>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
@@ -1517,8 +1554,9 @@
       <c r="W30" s="15"/>
       <c r="X30" s="14"/>
       <c r="Y30" s="15"/>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z30" s="15"/>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A31" s="16"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -1544,8 +1582,9 @@
       <c r="W31" s="12"/>
       <c r="X31" s="17"/>
       <c r="Y31" s="12"/>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z31" s="12"/>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A32" s="13"/>
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
@@ -1571,6 +1610,7 @@
       <c r="W32" s="15"/>
       <c r="X32" s="14"/>
       <c r="Y32" s="15"/>
+      <c r="Z32" s="15"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:C2 A4:C5 A7:C7">

--- a/excel/M2-S4/M2-S4-MAGI.xlsx
+++ b/excel/M2-S4/M2-S4-MAGI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AndyVESPUCE\bulletin-espi\backend\excel\M2-S4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE1CFF7C-6AC2-4292-8BDF-6D52AAAB56EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5285E763-5020-45AE-8A3B-11EB6388A88D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33795" yWindow="1995" windowWidth="17280" windowHeight="8880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -48,9 +48,6 @@
     <t>Gestion des centres commerciaux</t>
   </si>
   <si>
-    <t>Code Apprenant</t>
-  </si>
-  <si>
     <t>Nom</t>
   </si>
   <si>
@@ -106,6 +103,9 @@
   </si>
   <si>
     <t>Appreciations</t>
+  </si>
+  <si>
+    <t>CodeApprenant</t>
   </si>
 </sst>
 </file>
@@ -627,8 +627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA3" sqref="AA3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -644,22 +644,22 @@
         <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>3</v>
@@ -668,19 +668,19 @@
         <v>4</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R1" s="3"/>
       <c r="S1" s="3"/>
@@ -694,82 +694,82 @@
     </row>
     <row r="2" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="R2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="R2" s="6" t="s">
+      <c r="S2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="T2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="T2" s="8" t="s">
+      <c r="U2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="V2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="V2" s="7" t="s">
+      <c r="W2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="W2" s="8" t="s">
+      <c r="X2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="X2" s="6" t="s">
+      <c r="Y2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="Y2" s="8" t="s">
-        <v>17</v>
-      </c>
       <c r="Z2" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
